--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Proc-Procr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Proc-Procr.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.07143733333333334</v>
+        <v>0.347467</v>
       </c>
       <c r="H2">
-        <v>0.214312</v>
+        <v>1.042401</v>
       </c>
       <c r="I2">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="J2">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.732375</v>
+        <v>9.063968000000001</v>
       </c>
       <c r="N2">
-        <v>17.197125</v>
+        <v>27.191904</v>
       </c>
       <c r="O2">
-        <v>0.3269275305198899</v>
+        <v>0.3921806585023803</v>
       </c>
       <c r="P2">
-        <v>0.3269275305198899</v>
+        <v>0.3921806585023803</v>
       </c>
       <c r="Q2">
-        <v>0.4095055836666667</v>
+        <v>3.149429769056</v>
       </c>
       <c r="R2">
-        <v>3.685550253</v>
+        <v>28.344867921504</v>
       </c>
       <c r="S2">
-        <v>0.1853621762673813</v>
+        <v>0.3389583331428034</v>
       </c>
       <c r="T2">
-        <v>0.1853621762673813</v>
+        <v>0.3389583331428034</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.07143733333333334</v>
+        <v>0.347467</v>
       </c>
       <c r="H3">
-        <v>0.214312</v>
+        <v>1.042401</v>
       </c>
       <c r="I3">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="J3">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.864491</v>
       </c>
       <c r="O3">
-        <v>0.2445615923606619</v>
+        <v>0.185540687098555</v>
       </c>
       <c r="P3">
-        <v>0.244561592360662</v>
+        <v>0.185540687098555</v>
       </c>
       <c r="Q3">
-        <v>0.3063349772435556</v>
+        <v>1.489995364765667</v>
       </c>
       <c r="R3">
-        <v>2.757014795192</v>
+        <v>13.409958282891</v>
       </c>
       <c r="S3">
-        <v>0.1386621338352858</v>
+        <v>0.160361202587748</v>
       </c>
       <c r="T3">
-        <v>0.1386621338352858</v>
+        <v>0.1603612025877481</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.07143733333333334</v>
+        <v>0.347467</v>
       </c>
       <c r="H4">
-        <v>0.214312</v>
+        <v>1.042401</v>
       </c>
       <c r="I4">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="J4">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.167697</v>
+        <v>9.518580666666667</v>
       </c>
       <c r="N4">
-        <v>21.503091</v>
+        <v>28.555742</v>
       </c>
       <c r="O4">
-        <v>0.4087864942061227</v>
+        <v>0.4118508840566691</v>
       </c>
       <c r="P4">
-        <v>0.4087864942061227</v>
+        <v>0.4118508840566692</v>
       </c>
       <c r="Q4">
-        <v>0.5120411598213334</v>
+        <v>3.307392668504666</v>
       </c>
       <c r="R4">
-        <v>4.608370438392</v>
+        <v>29.766534016542</v>
       </c>
       <c r="S4">
-        <v>0.2317747730644244</v>
+        <v>0.3559591380572667</v>
       </c>
       <c r="T4">
-        <v>0.2317747730644244</v>
+        <v>0.3559591380572668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.07143733333333334</v>
+        <v>0.347467</v>
       </c>
       <c r="H5">
-        <v>0.214312</v>
+        <v>1.042401</v>
       </c>
       <c r="I5">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="J5">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.345849</v>
+        <v>0.2410036666666667</v>
       </c>
       <c r="N5">
-        <v>1.037547</v>
+        <v>0.7230110000000001</v>
       </c>
       <c r="O5">
-        <v>0.01972438291332535</v>
+        <v>0.01042777034239546</v>
       </c>
       <c r="P5">
-        <v>0.01972438291332535</v>
+        <v>0.01042777034239546</v>
       </c>
       <c r="Q5">
-        <v>0.024706530296</v>
+        <v>0.08374082104566667</v>
       </c>
       <c r="R5">
-        <v>0.222358772664</v>
+        <v>0.753667389411</v>
       </c>
       <c r="S5">
-        <v>0.0111833791927251</v>
+        <v>0.009012631237735739</v>
       </c>
       <c r="T5">
-        <v>0.0111833791927251</v>
+        <v>0.009012631237735741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.163675</v>
       </c>
       <c r="I6">
-        <v>0.4330175376401833</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="J6">
-        <v>0.4330175376401834</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.732375</v>
+        <v>9.063968000000001</v>
       </c>
       <c r="N6">
-        <v>17.197125</v>
+        <v>27.191904</v>
       </c>
       <c r="O6">
-        <v>0.3269275305198899</v>
+        <v>0.3921806585023803</v>
       </c>
       <c r="P6">
-        <v>0.3269275305198899</v>
+        <v>0.3921806585023803</v>
       </c>
       <c r="Q6">
-        <v>0.3127488260416666</v>
+        <v>0.4945149874666667</v>
       </c>
       <c r="R6">
-        <v>2.814739434375</v>
+        <v>4.4506348872</v>
       </c>
       <c r="S6">
-        <v>0.1415653542525086</v>
+        <v>0.05322232535957692</v>
       </c>
       <c r="T6">
-        <v>0.1415653542525086</v>
+        <v>0.05322232535957692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.163675</v>
       </c>
       <c r="I7">
-        <v>0.4330175376401833</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="J7">
-        <v>0.4330175376401834</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>12.864491</v>
       </c>
       <c r="O7">
-        <v>0.2445615923606619</v>
+        <v>0.185540687098555</v>
       </c>
       <c r="P7">
-        <v>0.244561592360662</v>
+        <v>0.185540687098555</v>
       </c>
       <c r="Q7">
         <v>0.2339550627138889</v>
@@ -883,10 +883,10 @@
         <v>2.105595564425</v>
       </c>
       <c r="S7">
-        <v>0.1058994585253761</v>
+        <v>0.02517948451080693</v>
       </c>
       <c r="T7">
-        <v>0.1058994585253761</v>
+        <v>0.02517948451080693</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.163675</v>
       </c>
       <c r="I8">
-        <v>0.4330175376401833</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="J8">
-        <v>0.4330175376401834</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.167697</v>
+        <v>9.518580666666667</v>
       </c>
       <c r="N8">
-        <v>21.503091</v>
+        <v>28.555742</v>
       </c>
       <c r="O8">
-        <v>0.4087864942061227</v>
+        <v>0.4118508840566691</v>
       </c>
       <c r="P8">
-        <v>0.4087864942061227</v>
+        <v>0.4118508840566692</v>
       </c>
       <c r="Q8">
-        <v>0.3910576021583332</v>
+        <v>0.5193178968722222</v>
       </c>
       <c r="R8">
-        <v>3.519518419424999</v>
+        <v>4.67386107185</v>
       </c>
       <c r="S8">
-        <v>0.1770117211416983</v>
+        <v>0.05589174599940246</v>
       </c>
       <c r="T8">
-        <v>0.1770117211416984</v>
+        <v>0.05589174599940246</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.163675</v>
       </c>
       <c r="I9">
-        <v>0.4330175376401833</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="J9">
-        <v>0.4330175376401834</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.345849</v>
+        <v>0.2410036666666667</v>
       </c>
       <c r="N9">
-        <v>1.037547</v>
+        <v>0.7230110000000001</v>
       </c>
       <c r="O9">
-        <v>0.01972438291332535</v>
+        <v>0.01042777034239546</v>
       </c>
       <c r="P9">
-        <v>0.01972438291332535</v>
+        <v>0.01042777034239546</v>
       </c>
       <c r="Q9">
-        <v>0.018868945025</v>
+        <v>0.01314875838055556</v>
       </c>
       <c r="R9">
-        <v>0.169820505225</v>
+        <v>0.118338825425</v>
       </c>
       <c r="S9">
-        <v>0.008541003720600248</v>
+        <v>0.00141513910465972</v>
       </c>
       <c r="T9">
-        <v>0.00854100372060025</v>
+        <v>0.00141513910465972</v>
       </c>
     </row>
   </sheetData>
